--- a/WorkBot/main/backend/orders/OrderFiles/Sysco/Sysco_TRIPHAMMER_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Sysco/Sysco_TRIPHAMMER_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,735 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3590999</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Can - Olive Black Whole (Pitted)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>63.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5100474</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rice Wild</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2366607</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liquid Egg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9035601</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>American Cheese (Sliced)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5054093</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roast Beef (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>184.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7161191</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vegan Mozz</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>137.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7143223</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sausage - Vegan Patty</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3413107</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1159946</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cheddar - Orange (Shredded)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7770727</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ravioli - Cheese (Med)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7133036</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chicken - Diced White &amp; Dark</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>525.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0017354</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hash Brown</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4617771</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Egg Patty</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>841.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2376067</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Falafel - Balls</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>48.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8415172</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chicken Filet - Breaded 4 oz (Raw)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>179.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7917672</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chicken Quarters</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7226918</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1735372</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cucumber - (english)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2004547</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Herb - Basil (Fresh)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1290469</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kiwi - Fresh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1723857</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lettuce - Green Leaf</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>45.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2416691</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lettuce - Romaine Hearts</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>131.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4615704</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pepper - Red Bell Fresh</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0683696</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>316.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6017263</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tomato - Grape</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>31.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1048313</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lime - Fresh</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7413057</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pineapple - Fresh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
